--- a/data/real_gdp_US_2021Q4.xlsx
+++ b/data/real_gdp_US_2021Q4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_teaching\_current.teaching\_SU.TSEF\lectures\code-TSEF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E4D4B5-819D-4AF8-9D1E-6CED7A741D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28A1AD0-166E-4B87-95DE-CE62ADB4D435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16200" windowHeight="28035" xr2:uid="{D5C0BB54-5EDF-4B21-B177-06F4412E0221}"/>
+    <workbookView xWindow="383" yWindow="383" windowWidth="14268" windowHeight="24599" xr2:uid="{D5C0BB54-5EDF-4B21-B177-06F4412E0221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,904 +36,904 @@
     <t>NBER</t>
   </si>
   <si>
-    <t>01.01.1947</t>
-  </si>
-  <si>
-    <t>01.04.1947</t>
-  </si>
-  <si>
-    <t>01.07.1947</t>
-  </si>
-  <si>
-    <t>01.10.1947</t>
-  </si>
-  <si>
-    <t>01.01.1948</t>
-  </si>
-  <si>
-    <t>01.04.1948</t>
-  </si>
-  <si>
-    <t>01.07.1948</t>
-  </si>
-  <si>
-    <t>01.10.1948</t>
-  </si>
-  <si>
-    <t>01.01.1949</t>
-  </si>
-  <si>
-    <t>01.04.1949</t>
-  </si>
-  <si>
-    <t>01.07.1949</t>
-  </si>
-  <si>
-    <t>01.10.1949</t>
-  </si>
-  <si>
-    <t>01.01.1950</t>
-  </si>
-  <si>
-    <t>01.04.1950</t>
-  </si>
-  <si>
-    <t>01.07.1950</t>
-  </si>
-  <si>
-    <t>01.10.1950</t>
-  </si>
-  <si>
-    <t>01.01.1951</t>
-  </si>
-  <si>
-    <t>01.04.1951</t>
-  </si>
-  <si>
-    <t>01.07.1951</t>
-  </si>
-  <si>
-    <t>01.10.1951</t>
-  </si>
-  <si>
-    <t>01.01.1952</t>
-  </si>
-  <si>
-    <t>01.04.1952</t>
-  </si>
-  <si>
-    <t>01.07.1952</t>
-  </si>
-  <si>
-    <t>01.10.1952</t>
-  </si>
-  <si>
-    <t>01.01.1953</t>
-  </si>
-  <si>
-    <t>01.04.1953</t>
-  </si>
-  <si>
-    <t>01.07.1953</t>
-  </si>
-  <si>
-    <t>01.10.1953</t>
-  </si>
-  <si>
-    <t>01.01.1954</t>
-  </si>
-  <si>
-    <t>01.04.1954</t>
-  </si>
-  <si>
-    <t>01.07.1954</t>
-  </si>
-  <si>
-    <t>01.10.1954</t>
-  </si>
-  <si>
-    <t>01.01.1955</t>
-  </si>
-  <si>
-    <t>01.04.1955</t>
-  </si>
-  <si>
-    <t>01.07.1955</t>
-  </si>
-  <si>
-    <t>01.10.1955</t>
-  </si>
-  <si>
-    <t>01.01.1956</t>
-  </si>
-  <si>
-    <t>01.04.1956</t>
-  </si>
-  <si>
-    <t>01.07.1956</t>
-  </si>
-  <si>
-    <t>01.10.1956</t>
-  </si>
-  <si>
-    <t>01.01.1957</t>
-  </si>
-  <si>
-    <t>01.04.1957</t>
-  </si>
-  <si>
-    <t>01.07.1957</t>
-  </si>
-  <si>
-    <t>01.10.1957</t>
-  </si>
-  <si>
-    <t>01.01.1958</t>
-  </si>
-  <si>
-    <t>01.04.1958</t>
-  </si>
-  <si>
-    <t>01.07.1958</t>
-  </si>
-  <si>
-    <t>01.10.1958</t>
-  </si>
-  <si>
-    <t>01.01.1959</t>
-  </si>
-  <si>
-    <t>01.04.1959</t>
-  </si>
-  <si>
-    <t>01.07.1959</t>
-  </si>
-  <si>
-    <t>01.10.1959</t>
-  </si>
-  <si>
-    <t>01.01.1960</t>
-  </si>
-  <si>
-    <t>01.04.1960</t>
-  </si>
-  <si>
-    <t>01.07.1960</t>
-  </si>
-  <si>
-    <t>01.10.1960</t>
-  </si>
-  <si>
-    <t>01.01.1961</t>
-  </si>
-  <si>
-    <t>01.04.1961</t>
-  </si>
-  <si>
-    <t>01.07.1961</t>
-  </si>
-  <si>
-    <t>01.10.1961</t>
-  </si>
-  <si>
-    <t>01.01.1962</t>
-  </si>
-  <si>
-    <t>01.04.1962</t>
-  </si>
-  <si>
-    <t>01.07.1962</t>
-  </si>
-  <si>
-    <t>01.10.1962</t>
-  </si>
-  <si>
-    <t>01.01.1963</t>
-  </si>
-  <si>
-    <t>01.04.1963</t>
-  </si>
-  <si>
-    <t>01.07.1963</t>
-  </si>
-  <si>
-    <t>01.10.1963</t>
-  </si>
-  <si>
-    <t>01.01.1964</t>
-  </si>
-  <si>
-    <t>01.04.1964</t>
-  </si>
-  <si>
-    <t>01.07.1964</t>
-  </si>
-  <si>
-    <t>01.10.1964</t>
-  </si>
-  <si>
-    <t>01.01.1965</t>
-  </si>
-  <si>
-    <t>01.04.1965</t>
-  </si>
-  <si>
-    <t>01.07.1965</t>
-  </si>
-  <si>
-    <t>01.10.1965</t>
-  </si>
-  <si>
-    <t>01.01.1966</t>
-  </si>
-  <si>
-    <t>01.04.1966</t>
-  </si>
-  <si>
-    <t>01.07.1966</t>
-  </si>
-  <si>
-    <t>01.10.1966</t>
-  </si>
-  <si>
-    <t>01.01.1967</t>
-  </si>
-  <si>
-    <t>01.04.1967</t>
-  </si>
-  <si>
-    <t>01.07.1967</t>
-  </si>
-  <si>
-    <t>01.10.1967</t>
-  </si>
-  <si>
-    <t>01.01.1968</t>
-  </si>
-  <si>
-    <t>01.04.1968</t>
-  </si>
-  <si>
-    <t>01.07.1968</t>
-  </si>
-  <si>
-    <t>01.10.1968</t>
-  </si>
-  <si>
-    <t>01.01.1969</t>
-  </si>
-  <si>
-    <t>01.04.1969</t>
-  </si>
-  <si>
-    <t>01.07.1969</t>
-  </si>
-  <si>
-    <t>01.10.1969</t>
-  </si>
-  <si>
-    <t>01.01.1970</t>
-  </si>
-  <si>
-    <t>01.04.1970</t>
-  </si>
-  <si>
-    <t>01.07.1970</t>
-  </si>
-  <si>
-    <t>01.10.1970</t>
-  </si>
-  <si>
-    <t>01.01.1971</t>
-  </si>
-  <si>
-    <t>01.04.1971</t>
-  </si>
-  <si>
-    <t>01.07.1971</t>
-  </si>
-  <si>
-    <t>01.10.1971</t>
-  </si>
-  <si>
-    <t>01.01.1972</t>
-  </si>
-  <si>
-    <t>01.04.1972</t>
-  </si>
-  <si>
-    <t>01.07.1972</t>
-  </si>
-  <si>
-    <t>01.10.1972</t>
-  </si>
-  <si>
-    <t>01.01.1973</t>
-  </si>
-  <si>
-    <t>01.04.1973</t>
-  </si>
-  <si>
-    <t>01.07.1973</t>
-  </si>
-  <si>
-    <t>01.10.1973</t>
-  </si>
-  <si>
-    <t>01.01.1974</t>
-  </si>
-  <si>
-    <t>01.04.1974</t>
-  </si>
-  <si>
-    <t>01.07.1974</t>
-  </si>
-  <si>
-    <t>01.10.1974</t>
-  </si>
-  <si>
-    <t>01.01.1975</t>
-  </si>
-  <si>
-    <t>01.04.1975</t>
-  </si>
-  <si>
-    <t>01.07.1975</t>
-  </si>
-  <si>
-    <t>01.10.1975</t>
-  </si>
-  <si>
-    <t>01.01.1976</t>
-  </si>
-  <si>
-    <t>01.04.1976</t>
-  </si>
-  <si>
-    <t>01.07.1976</t>
-  </si>
-  <si>
-    <t>01.10.1976</t>
-  </si>
-  <si>
-    <t>01.01.1977</t>
-  </si>
-  <si>
-    <t>01.04.1977</t>
-  </si>
-  <si>
-    <t>01.07.1977</t>
-  </si>
-  <si>
-    <t>01.10.1977</t>
-  </si>
-  <si>
-    <t>01.01.1978</t>
-  </si>
-  <si>
-    <t>01.04.1978</t>
-  </si>
-  <si>
-    <t>01.07.1978</t>
-  </si>
-  <si>
-    <t>01.10.1978</t>
-  </si>
-  <si>
-    <t>01.01.1979</t>
-  </si>
-  <si>
-    <t>01.04.1979</t>
-  </si>
-  <si>
-    <t>01.07.1979</t>
-  </si>
-  <si>
-    <t>01.10.1979</t>
-  </si>
-  <si>
-    <t>01.01.1980</t>
-  </si>
-  <si>
-    <t>01.04.1980</t>
-  </si>
-  <si>
-    <t>01.07.1980</t>
-  </si>
-  <si>
-    <t>01.10.1980</t>
-  </si>
-  <si>
-    <t>01.01.1981</t>
-  </si>
-  <si>
-    <t>01.04.1981</t>
-  </si>
-  <si>
-    <t>01.07.1981</t>
-  </si>
-  <si>
-    <t>01.10.1981</t>
-  </si>
-  <si>
-    <t>01.01.1982</t>
-  </si>
-  <si>
-    <t>01.04.1982</t>
-  </si>
-  <si>
-    <t>01.07.1982</t>
-  </si>
-  <si>
-    <t>01.10.1982</t>
-  </si>
-  <si>
-    <t>01.01.1983</t>
-  </si>
-  <si>
-    <t>01.04.1983</t>
-  </si>
-  <si>
-    <t>01.07.1983</t>
-  </si>
-  <si>
-    <t>01.10.1983</t>
-  </si>
-  <si>
-    <t>01.01.1984</t>
-  </si>
-  <si>
-    <t>01.04.1984</t>
-  </si>
-  <si>
-    <t>01.07.1984</t>
-  </si>
-  <si>
-    <t>01.10.1984</t>
-  </si>
-  <si>
-    <t>01.01.1985</t>
-  </si>
-  <si>
-    <t>01.04.1985</t>
-  </si>
-  <si>
-    <t>01.07.1985</t>
-  </si>
-  <si>
-    <t>01.10.1985</t>
-  </si>
-  <si>
-    <t>01.01.1986</t>
-  </si>
-  <si>
-    <t>01.04.1986</t>
-  </si>
-  <si>
-    <t>01.07.1986</t>
-  </si>
-  <si>
-    <t>01.10.1986</t>
-  </si>
-  <si>
-    <t>01.01.1987</t>
-  </si>
-  <si>
-    <t>01.04.1987</t>
-  </si>
-  <si>
-    <t>01.07.1987</t>
-  </si>
-  <si>
-    <t>01.10.1987</t>
-  </si>
-  <si>
-    <t>01.01.1988</t>
-  </si>
-  <si>
-    <t>01.04.1988</t>
-  </si>
-  <si>
-    <t>01.07.1988</t>
-  </si>
-  <si>
-    <t>01.10.1988</t>
-  </si>
-  <si>
-    <t>01.01.1989</t>
-  </si>
-  <si>
-    <t>01.04.1989</t>
-  </si>
-  <si>
-    <t>01.07.1989</t>
-  </si>
-  <si>
-    <t>01.10.1989</t>
-  </si>
-  <si>
-    <t>01.01.1990</t>
-  </si>
-  <si>
-    <t>01.04.1990</t>
-  </si>
-  <si>
-    <t>01.07.1990</t>
-  </si>
-  <si>
-    <t>01.10.1990</t>
-  </si>
-  <si>
-    <t>01.01.1991</t>
-  </si>
-  <si>
-    <t>01.04.1991</t>
-  </si>
-  <si>
-    <t>01.07.1991</t>
-  </si>
-  <si>
-    <t>01.10.1991</t>
-  </si>
-  <si>
-    <t>01.01.1992</t>
-  </si>
-  <si>
-    <t>01.04.1992</t>
-  </si>
-  <si>
-    <t>01.07.1992</t>
-  </si>
-  <si>
-    <t>01.10.1992</t>
-  </si>
-  <si>
-    <t>01.01.1993</t>
-  </si>
-  <si>
-    <t>01.04.1993</t>
-  </si>
-  <si>
-    <t>01.07.1993</t>
-  </si>
-  <si>
-    <t>01.10.1993</t>
-  </si>
-  <si>
-    <t>01.01.1994</t>
-  </si>
-  <si>
-    <t>01.04.1994</t>
-  </si>
-  <si>
-    <t>01.07.1994</t>
-  </si>
-  <si>
-    <t>01.10.1994</t>
-  </si>
-  <si>
-    <t>01.01.1995</t>
-  </si>
-  <si>
-    <t>01.04.1995</t>
-  </si>
-  <si>
-    <t>01.07.1995</t>
-  </si>
-  <si>
-    <t>01.10.1995</t>
-  </si>
-  <si>
-    <t>01.01.1996</t>
-  </si>
-  <si>
-    <t>01.04.1996</t>
-  </si>
-  <si>
-    <t>01.07.1996</t>
-  </si>
-  <si>
-    <t>01.10.1996</t>
-  </si>
-  <si>
-    <t>01.01.1997</t>
-  </si>
-  <si>
-    <t>01.04.1997</t>
-  </si>
-  <si>
-    <t>01.07.1997</t>
-  </si>
-  <si>
-    <t>01.10.1997</t>
-  </si>
-  <si>
-    <t>01.01.1998</t>
-  </si>
-  <si>
-    <t>01.04.1998</t>
-  </si>
-  <si>
-    <t>01.07.1998</t>
-  </si>
-  <si>
-    <t>01.10.1998</t>
-  </si>
-  <si>
-    <t>01.01.1999</t>
-  </si>
-  <si>
-    <t>01.04.1999</t>
-  </si>
-  <si>
-    <t>01.07.1999</t>
-  </si>
-  <si>
-    <t>01.10.1999</t>
-  </si>
-  <si>
-    <t>01.01.2000</t>
-  </si>
-  <si>
-    <t>01.04.2000</t>
-  </si>
-  <si>
-    <t>01.07.2000</t>
-  </si>
-  <si>
-    <t>01.10.2000</t>
-  </si>
-  <si>
-    <t>01.01.2001</t>
-  </si>
-  <si>
-    <t>01.04.2001</t>
-  </si>
-  <si>
-    <t>01.07.2001</t>
-  </si>
-  <si>
-    <t>01.10.2001</t>
-  </si>
-  <si>
-    <t>01.01.2002</t>
-  </si>
-  <si>
-    <t>01.04.2002</t>
-  </si>
-  <si>
-    <t>01.07.2002</t>
-  </si>
-  <si>
-    <t>01.10.2002</t>
-  </si>
-  <si>
-    <t>01.01.2003</t>
-  </si>
-  <si>
-    <t>01.04.2003</t>
-  </si>
-  <si>
-    <t>01.07.2003</t>
-  </si>
-  <si>
-    <t>01.10.2003</t>
-  </si>
-  <si>
-    <t>01.01.2004</t>
-  </si>
-  <si>
-    <t>01.04.2004</t>
-  </si>
-  <si>
-    <t>01.07.2004</t>
-  </si>
-  <si>
-    <t>01.10.2004</t>
-  </si>
-  <si>
-    <t>01.01.2005</t>
-  </si>
-  <si>
-    <t>01.04.2005</t>
-  </si>
-  <si>
-    <t>01.07.2005</t>
-  </si>
-  <si>
-    <t>01.10.2005</t>
-  </si>
-  <si>
-    <t>01.01.2006</t>
-  </si>
-  <si>
-    <t>01.04.2006</t>
-  </si>
-  <si>
-    <t>01.07.2006</t>
-  </si>
-  <si>
-    <t>01.10.2006</t>
-  </si>
-  <si>
-    <t>01.01.2007</t>
-  </si>
-  <si>
-    <t>01.04.2007</t>
-  </si>
-  <si>
-    <t>01.07.2007</t>
-  </si>
-  <si>
-    <t>01.10.2007</t>
-  </si>
-  <si>
-    <t>01.01.2008</t>
-  </si>
-  <si>
-    <t>01.04.2008</t>
-  </si>
-  <si>
-    <t>01.07.2008</t>
-  </si>
-  <si>
-    <t>01.10.2008</t>
-  </si>
-  <si>
-    <t>01.01.2009</t>
-  </si>
-  <si>
-    <t>01.04.2009</t>
-  </si>
-  <si>
-    <t>01.07.2009</t>
-  </si>
-  <si>
-    <t>01.10.2009</t>
-  </si>
-  <si>
-    <t>01.01.2010</t>
-  </si>
-  <si>
-    <t>01.04.2010</t>
-  </si>
-  <si>
-    <t>01.07.2010</t>
-  </si>
-  <si>
-    <t>01.10.2010</t>
-  </si>
-  <si>
-    <t>01.01.2011</t>
-  </si>
-  <si>
-    <t>01.04.2011</t>
-  </si>
-  <si>
-    <t>01.07.2011</t>
-  </si>
-  <si>
-    <t>01.10.2011</t>
-  </si>
-  <si>
-    <t>01.01.2012</t>
-  </si>
-  <si>
-    <t>01.04.2012</t>
-  </si>
-  <si>
-    <t>01.07.2012</t>
-  </si>
-  <si>
-    <t>01.10.2012</t>
-  </si>
-  <si>
-    <t>01.01.2013</t>
-  </si>
-  <si>
-    <t>01.04.2013</t>
-  </si>
-  <si>
-    <t>01.07.2013</t>
-  </si>
-  <si>
-    <t>01.10.2013</t>
-  </si>
-  <si>
-    <t>01.01.2014</t>
-  </si>
-  <si>
-    <t>01.04.2014</t>
-  </si>
-  <si>
-    <t>01.07.2014</t>
-  </si>
-  <si>
-    <t>01.10.2014</t>
-  </si>
-  <si>
-    <t>01.01.2015</t>
-  </si>
-  <si>
-    <t>01.04.2015</t>
-  </si>
-  <si>
-    <t>01.07.2015</t>
-  </si>
-  <si>
-    <t>01.10.2015</t>
-  </si>
-  <si>
-    <t>01.01.2016</t>
-  </si>
-  <si>
-    <t>01.04.2016</t>
-  </si>
-  <si>
-    <t>01.07.2016</t>
-  </si>
-  <si>
-    <t>01.10.2016</t>
-  </si>
-  <si>
-    <t>01.01.2017</t>
-  </si>
-  <si>
-    <t>01.04.2017</t>
-  </si>
-  <si>
-    <t>01.07.2017</t>
-  </si>
-  <si>
-    <t>01.10.2017</t>
-  </si>
-  <si>
-    <t>01.01.2018</t>
-  </si>
-  <si>
-    <t>01.04.2018</t>
-  </si>
-  <si>
-    <t>01.07.2018</t>
-  </si>
-  <si>
-    <t>01.10.2018</t>
-  </si>
-  <si>
-    <t>01.01.2019</t>
-  </si>
-  <si>
-    <t>01.04.2019</t>
-  </si>
-  <si>
-    <t>01.07.2019</t>
-  </si>
-  <si>
-    <t>01.10.2019</t>
-  </si>
-  <si>
-    <t>01.01.2020</t>
-  </si>
-  <si>
-    <t>01.04.2020</t>
-  </si>
-  <si>
-    <t>01.07.2020</t>
-  </si>
-  <si>
-    <t>01.10.2020</t>
-  </si>
-  <si>
-    <t>01.01.2021</t>
-  </si>
-  <si>
-    <t>01.04.2021</t>
-  </si>
-  <si>
-    <t>01.07.2021</t>
-  </si>
-  <si>
-    <t>01.10.2021</t>
+    <t>01-Jan-1947</t>
+  </si>
+  <si>
+    <t>01-Apr-1947</t>
+  </si>
+  <si>
+    <t>01-Jul-1947</t>
+  </si>
+  <si>
+    <t>01-Oct-1947</t>
+  </si>
+  <si>
+    <t>01-Jan-1948</t>
+  </si>
+  <si>
+    <t>01-Apr-1948</t>
+  </si>
+  <si>
+    <t>01-Jul-1948</t>
+  </si>
+  <si>
+    <t>01-Oct-1948</t>
+  </si>
+  <si>
+    <t>01-Jan-1949</t>
+  </si>
+  <si>
+    <t>01-Apr-1949</t>
+  </si>
+  <si>
+    <t>01-Jul-1949</t>
+  </si>
+  <si>
+    <t>01-Oct-1949</t>
+  </si>
+  <si>
+    <t>01-Jan-1950</t>
+  </si>
+  <si>
+    <t>01-Apr-1950</t>
+  </si>
+  <si>
+    <t>01-Jul-1950</t>
+  </si>
+  <si>
+    <t>01-Oct-1950</t>
+  </si>
+  <si>
+    <t>01-Jan-1951</t>
+  </si>
+  <si>
+    <t>01-Apr-1951</t>
+  </si>
+  <si>
+    <t>01-Jul-1951</t>
+  </si>
+  <si>
+    <t>01-Oct-1951</t>
+  </si>
+  <si>
+    <t>01-Jan-1952</t>
+  </si>
+  <si>
+    <t>01-Apr-1952</t>
+  </si>
+  <si>
+    <t>01-Jul-1952</t>
+  </si>
+  <si>
+    <t>01-Oct-1952</t>
+  </si>
+  <si>
+    <t>01-Jan-1953</t>
+  </si>
+  <si>
+    <t>01-Apr-1953</t>
+  </si>
+  <si>
+    <t>01-Jul-1953</t>
+  </si>
+  <si>
+    <t>01-Oct-1953</t>
+  </si>
+  <si>
+    <t>01-Jan-1954</t>
+  </si>
+  <si>
+    <t>01-Apr-1954</t>
+  </si>
+  <si>
+    <t>01-Jul-1954</t>
+  </si>
+  <si>
+    <t>01-Oct-1954</t>
+  </si>
+  <si>
+    <t>01-Jan-1955</t>
+  </si>
+  <si>
+    <t>01-Apr-1955</t>
+  </si>
+  <si>
+    <t>01-Jul-1955</t>
+  </si>
+  <si>
+    <t>01-Oct-1955</t>
+  </si>
+  <si>
+    <t>01-Jan-1956</t>
+  </si>
+  <si>
+    <t>01-Apr-1956</t>
+  </si>
+  <si>
+    <t>01-Jul-1956</t>
+  </si>
+  <si>
+    <t>01-Oct-1956</t>
+  </si>
+  <si>
+    <t>01-Jan-1957</t>
+  </si>
+  <si>
+    <t>01-Apr-1957</t>
+  </si>
+  <si>
+    <t>01-Jul-1957</t>
+  </si>
+  <si>
+    <t>01-Oct-1957</t>
+  </si>
+  <si>
+    <t>01-Jan-1958</t>
+  </si>
+  <si>
+    <t>01-Apr-1958</t>
+  </si>
+  <si>
+    <t>01-Jul-1958</t>
+  </si>
+  <si>
+    <t>01-Oct-1958</t>
+  </si>
+  <si>
+    <t>01-Jan-1959</t>
+  </si>
+  <si>
+    <t>01-Apr-1959</t>
+  </si>
+  <si>
+    <t>01-Jul-1959</t>
+  </si>
+  <si>
+    <t>01-Oct-1959</t>
+  </si>
+  <si>
+    <t>01-Jan-1960</t>
+  </si>
+  <si>
+    <t>01-Apr-1960</t>
+  </si>
+  <si>
+    <t>01-Jul-1960</t>
+  </si>
+  <si>
+    <t>01-Oct-1960</t>
+  </si>
+  <si>
+    <t>01-Jan-1961</t>
+  </si>
+  <si>
+    <t>01-Apr-1961</t>
+  </si>
+  <si>
+    <t>01-Jul-1961</t>
+  </si>
+  <si>
+    <t>01-Oct-1961</t>
+  </si>
+  <si>
+    <t>01-Jan-1962</t>
+  </si>
+  <si>
+    <t>01-Apr-1962</t>
+  </si>
+  <si>
+    <t>01-Jul-1962</t>
+  </si>
+  <si>
+    <t>01-Oct-1962</t>
+  </si>
+  <si>
+    <t>01-Jan-1963</t>
+  </si>
+  <si>
+    <t>01-Apr-1963</t>
+  </si>
+  <si>
+    <t>01-Jul-1963</t>
+  </si>
+  <si>
+    <t>01-Oct-1963</t>
+  </si>
+  <si>
+    <t>01-Jan-1964</t>
+  </si>
+  <si>
+    <t>01-Apr-1964</t>
+  </si>
+  <si>
+    <t>01-Jul-1964</t>
+  </si>
+  <si>
+    <t>01-Oct-1964</t>
+  </si>
+  <si>
+    <t>01-Jan-1965</t>
+  </si>
+  <si>
+    <t>01-Apr-1965</t>
+  </si>
+  <si>
+    <t>01-Jul-1965</t>
+  </si>
+  <si>
+    <t>01-Oct-1965</t>
+  </si>
+  <si>
+    <t>01-Jan-1966</t>
+  </si>
+  <si>
+    <t>01-Apr-1966</t>
+  </si>
+  <si>
+    <t>01-Jul-1966</t>
+  </si>
+  <si>
+    <t>01-Oct-1966</t>
+  </si>
+  <si>
+    <t>01-Jan-1967</t>
+  </si>
+  <si>
+    <t>01-Apr-1967</t>
+  </si>
+  <si>
+    <t>01-Jul-1967</t>
+  </si>
+  <si>
+    <t>01-Oct-1967</t>
+  </si>
+  <si>
+    <t>01-Jan-1968</t>
+  </si>
+  <si>
+    <t>01-Apr-1968</t>
+  </si>
+  <si>
+    <t>01-Jul-1968</t>
+  </si>
+  <si>
+    <t>01-Oct-1968</t>
+  </si>
+  <si>
+    <t>01-Jan-1969</t>
+  </si>
+  <si>
+    <t>01-Apr-1969</t>
+  </si>
+  <si>
+    <t>01-Jul-1969</t>
+  </si>
+  <si>
+    <t>01-Oct-1969</t>
+  </si>
+  <si>
+    <t>01-Jan-1970</t>
+  </si>
+  <si>
+    <t>01-Apr-1970</t>
+  </si>
+  <si>
+    <t>01-Jul-1970</t>
+  </si>
+  <si>
+    <t>01-Oct-1970</t>
+  </si>
+  <si>
+    <t>01-Jan-1971</t>
+  </si>
+  <si>
+    <t>01-Apr-1971</t>
+  </si>
+  <si>
+    <t>01-Jul-1971</t>
+  </si>
+  <si>
+    <t>01-Oct-1971</t>
+  </si>
+  <si>
+    <t>01-Jan-1972</t>
+  </si>
+  <si>
+    <t>01-Apr-1972</t>
+  </si>
+  <si>
+    <t>01-Jul-1972</t>
+  </si>
+  <si>
+    <t>01-Oct-1972</t>
+  </si>
+  <si>
+    <t>01-Jan-1973</t>
+  </si>
+  <si>
+    <t>01-Apr-1973</t>
+  </si>
+  <si>
+    <t>01-Jul-1973</t>
+  </si>
+  <si>
+    <t>01-Oct-1973</t>
+  </si>
+  <si>
+    <t>01-Jan-1974</t>
+  </si>
+  <si>
+    <t>01-Apr-1974</t>
+  </si>
+  <si>
+    <t>01-Jul-1974</t>
+  </si>
+  <si>
+    <t>01-Oct-1974</t>
+  </si>
+  <si>
+    <t>01-Jan-1975</t>
+  </si>
+  <si>
+    <t>01-Apr-1975</t>
+  </si>
+  <si>
+    <t>01-Jul-1975</t>
+  </si>
+  <si>
+    <t>01-Oct-1975</t>
+  </si>
+  <si>
+    <t>01-Jan-1976</t>
+  </si>
+  <si>
+    <t>01-Apr-1976</t>
+  </si>
+  <si>
+    <t>01-Jul-1976</t>
+  </si>
+  <si>
+    <t>01-Oct-1976</t>
+  </si>
+  <si>
+    <t>01-Jan-1977</t>
+  </si>
+  <si>
+    <t>01-Apr-1977</t>
+  </si>
+  <si>
+    <t>01-Jul-1977</t>
+  </si>
+  <si>
+    <t>01-Oct-1977</t>
+  </si>
+  <si>
+    <t>01-Jan-1978</t>
+  </si>
+  <si>
+    <t>01-Apr-1978</t>
+  </si>
+  <si>
+    <t>01-Jul-1978</t>
+  </si>
+  <si>
+    <t>01-Oct-1978</t>
+  </si>
+  <si>
+    <t>01-Jan-1979</t>
+  </si>
+  <si>
+    <t>01-Apr-1979</t>
+  </si>
+  <si>
+    <t>01-Jul-1979</t>
+  </si>
+  <si>
+    <t>01-Oct-1979</t>
+  </si>
+  <si>
+    <t>01-Jan-1980</t>
+  </si>
+  <si>
+    <t>01-Apr-1980</t>
+  </si>
+  <si>
+    <t>01-Jul-1980</t>
+  </si>
+  <si>
+    <t>01-Oct-1980</t>
+  </si>
+  <si>
+    <t>01-Jan-1981</t>
+  </si>
+  <si>
+    <t>01-Apr-1981</t>
+  </si>
+  <si>
+    <t>01-Jul-1981</t>
+  </si>
+  <si>
+    <t>01-Oct-1981</t>
+  </si>
+  <si>
+    <t>01-Jan-1982</t>
+  </si>
+  <si>
+    <t>01-Apr-1982</t>
+  </si>
+  <si>
+    <t>01-Jul-1982</t>
+  </si>
+  <si>
+    <t>01-Oct-1982</t>
+  </si>
+  <si>
+    <t>01-Jan-1983</t>
+  </si>
+  <si>
+    <t>01-Apr-1983</t>
+  </si>
+  <si>
+    <t>01-Jul-1983</t>
+  </si>
+  <si>
+    <t>01-Oct-1983</t>
+  </si>
+  <si>
+    <t>01-Jan-1984</t>
+  </si>
+  <si>
+    <t>01-Apr-1984</t>
+  </si>
+  <si>
+    <t>01-Jul-1984</t>
+  </si>
+  <si>
+    <t>01-Oct-1984</t>
+  </si>
+  <si>
+    <t>01-Jan-1985</t>
+  </si>
+  <si>
+    <t>01-Apr-1985</t>
+  </si>
+  <si>
+    <t>01-Jul-1985</t>
+  </si>
+  <si>
+    <t>01-Oct-1985</t>
+  </si>
+  <si>
+    <t>01-Jan-1986</t>
+  </si>
+  <si>
+    <t>01-Apr-1986</t>
+  </si>
+  <si>
+    <t>01-Jul-1986</t>
+  </si>
+  <si>
+    <t>01-Oct-1986</t>
+  </si>
+  <si>
+    <t>01-Jan-1987</t>
+  </si>
+  <si>
+    <t>01-Apr-1987</t>
+  </si>
+  <si>
+    <t>01-Jul-1987</t>
+  </si>
+  <si>
+    <t>01-Oct-1987</t>
+  </si>
+  <si>
+    <t>01-Jan-1988</t>
+  </si>
+  <si>
+    <t>01-Apr-1988</t>
+  </si>
+  <si>
+    <t>01-Jul-1988</t>
+  </si>
+  <si>
+    <t>01-Oct-1988</t>
+  </si>
+  <si>
+    <t>01-Jan-1989</t>
+  </si>
+  <si>
+    <t>01-Apr-1989</t>
+  </si>
+  <si>
+    <t>01-Jul-1989</t>
+  </si>
+  <si>
+    <t>01-Oct-1989</t>
+  </si>
+  <si>
+    <t>01-Jan-1990</t>
+  </si>
+  <si>
+    <t>01-Apr-1990</t>
+  </si>
+  <si>
+    <t>01-Jul-1990</t>
+  </si>
+  <si>
+    <t>01-Oct-1990</t>
+  </si>
+  <si>
+    <t>01-Jan-1991</t>
+  </si>
+  <si>
+    <t>01-Apr-1991</t>
+  </si>
+  <si>
+    <t>01-Jul-1991</t>
+  </si>
+  <si>
+    <t>01-Oct-1991</t>
+  </si>
+  <si>
+    <t>01-Jan-1992</t>
+  </si>
+  <si>
+    <t>01-Apr-1992</t>
+  </si>
+  <si>
+    <t>01-Jul-1992</t>
+  </si>
+  <si>
+    <t>01-Oct-1992</t>
+  </si>
+  <si>
+    <t>01-Jan-1993</t>
+  </si>
+  <si>
+    <t>01-Apr-1993</t>
+  </si>
+  <si>
+    <t>01-Jul-1993</t>
+  </si>
+  <si>
+    <t>01-Oct-1993</t>
+  </si>
+  <si>
+    <t>01-Jan-1994</t>
+  </si>
+  <si>
+    <t>01-Apr-1994</t>
+  </si>
+  <si>
+    <t>01-Jul-1994</t>
+  </si>
+  <si>
+    <t>01-Oct-1994</t>
+  </si>
+  <si>
+    <t>01-Jan-1995</t>
+  </si>
+  <si>
+    <t>01-Apr-1995</t>
+  </si>
+  <si>
+    <t>01-Jul-1995</t>
+  </si>
+  <si>
+    <t>01-Oct-1995</t>
+  </si>
+  <si>
+    <t>01-Jan-1996</t>
+  </si>
+  <si>
+    <t>01-Apr-1996</t>
+  </si>
+  <si>
+    <t>01-Jul-1996</t>
+  </si>
+  <si>
+    <t>01-Oct-1996</t>
+  </si>
+  <si>
+    <t>01-Jan-1997</t>
+  </si>
+  <si>
+    <t>01-Apr-1997</t>
+  </si>
+  <si>
+    <t>01-Jul-1997</t>
+  </si>
+  <si>
+    <t>01-Oct-1997</t>
+  </si>
+  <si>
+    <t>01-Jan-1998</t>
+  </si>
+  <si>
+    <t>01-Apr-1998</t>
+  </si>
+  <si>
+    <t>01-Jul-1998</t>
+  </si>
+  <si>
+    <t>01-Oct-1998</t>
+  </si>
+  <si>
+    <t>01-Jan-1999</t>
+  </si>
+  <si>
+    <t>01-Apr-1999</t>
+  </si>
+  <si>
+    <t>01-Jul-1999</t>
+  </si>
+  <si>
+    <t>01-Oct-1999</t>
+  </si>
+  <si>
+    <t>01-Jan-2000</t>
+  </si>
+  <si>
+    <t>01-Apr-2000</t>
+  </si>
+  <si>
+    <t>01-Jul-2000</t>
+  </si>
+  <si>
+    <t>01-Oct-2000</t>
+  </si>
+  <si>
+    <t>01-Jan-2001</t>
+  </si>
+  <si>
+    <t>01-Apr-2001</t>
+  </si>
+  <si>
+    <t>01-Jul-2001</t>
+  </si>
+  <si>
+    <t>01-Oct-2001</t>
+  </si>
+  <si>
+    <t>01-Jan-2002</t>
+  </si>
+  <si>
+    <t>01-Apr-2002</t>
+  </si>
+  <si>
+    <t>01-Jul-2002</t>
+  </si>
+  <si>
+    <t>01-Oct-2002</t>
+  </si>
+  <si>
+    <t>01-Jan-2003</t>
+  </si>
+  <si>
+    <t>01-Apr-2003</t>
+  </si>
+  <si>
+    <t>01-Jul-2003</t>
+  </si>
+  <si>
+    <t>01-Oct-2003</t>
+  </si>
+  <si>
+    <t>01-Jan-2004</t>
+  </si>
+  <si>
+    <t>01-Apr-2004</t>
+  </si>
+  <si>
+    <t>01-Jul-2004</t>
+  </si>
+  <si>
+    <t>01-Oct-2004</t>
+  </si>
+  <si>
+    <t>01-Jan-2005</t>
+  </si>
+  <si>
+    <t>01-Apr-2005</t>
+  </si>
+  <si>
+    <t>01-Jul-2005</t>
+  </si>
+  <si>
+    <t>01-Oct-2005</t>
+  </si>
+  <si>
+    <t>01-Jan-2006</t>
+  </si>
+  <si>
+    <t>01-Apr-2006</t>
+  </si>
+  <si>
+    <t>01-Jul-2006</t>
+  </si>
+  <si>
+    <t>01-Oct-2006</t>
+  </si>
+  <si>
+    <t>01-Jan-2007</t>
+  </si>
+  <si>
+    <t>01-Apr-2007</t>
+  </si>
+  <si>
+    <t>01-Jul-2007</t>
+  </si>
+  <si>
+    <t>01-Oct-2007</t>
+  </si>
+  <si>
+    <t>01-Jan-2008</t>
+  </si>
+  <si>
+    <t>01-Apr-2008</t>
+  </si>
+  <si>
+    <t>01-Jul-2008</t>
+  </si>
+  <si>
+    <t>01-Oct-2008</t>
+  </si>
+  <si>
+    <t>01-Jan-2009</t>
+  </si>
+  <si>
+    <t>01-Apr-2009</t>
+  </si>
+  <si>
+    <t>01-Jul-2009</t>
+  </si>
+  <si>
+    <t>01-Oct-2009</t>
+  </si>
+  <si>
+    <t>01-Jan-2010</t>
+  </si>
+  <si>
+    <t>01-Apr-2010</t>
+  </si>
+  <si>
+    <t>01-Jul-2010</t>
+  </si>
+  <si>
+    <t>01-Oct-2010</t>
+  </si>
+  <si>
+    <t>01-Jan-2011</t>
+  </si>
+  <si>
+    <t>01-Apr-2011</t>
+  </si>
+  <si>
+    <t>01-Jul-2011</t>
+  </si>
+  <si>
+    <t>01-Oct-2011</t>
+  </si>
+  <si>
+    <t>01-Jan-2012</t>
+  </si>
+  <si>
+    <t>01-Apr-2012</t>
+  </si>
+  <si>
+    <t>01-Jul-2012</t>
+  </si>
+  <si>
+    <t>01-Oct-2012</t>
+  </si>
+  <si>
+    <t>01-Jan-2013</t>
+  </si>
+  <si>
+    <t>01-Apr-2013</t>
+  </si>
+  <si>
+    <t>01-Jul-2013</t>
+  </si>
+  <si>
+    <t>01-Oct-2013</t>
+  </si>
+  <si>
+    <t>01-Jan-2014</t>
+  </si>
+  <si>
+    <t>01-Apr-2014</t>
+  </si>
+  <si>
+    <t>01-Jul-2014</t>
+  </si>
+  <si>
+    <t>01-Oct-2014</t>
+  </si>
+  <si>
+    <t>01-Jan-2015</t>
+  </si>
+  <si>
+    <t>01-Apr-2015</t>
+  </si>
+  <si>
+    <t>01-Jul-2015</t>
+  </si>
+  <si>
+    <t>01-Oct-2015</t>
+  </si>
+  <si>
+    <t>01-Jan-2016</t>
+  </si>
+  <si>
+    <t>01-Apr-2016</t>
+  </si>
+  <si>
+    <t>01-Jul-2016</t>
+  </si>
+  <si>
+    <t>01-Oct-2016</t>
+  </si>
+  <si>
+    <t>01-Jan-2017</t>
+  </si>
+  <si>
+    <t>01-Apr-2017</t>
+  </si>
+  <si>
+    <t>01-Jul-2017</t>
+  </si>
+  <si>
+    <t>01-Oct-2017</t>
+  </si>
+  <si>
+    <t>01-Jan-2018</t>
+  </si>
+  <si>
+    <t>01-Apr-2018</t>
+  </si>
+  <si>
+    <t>01-Jul-2018</t>
+  </si>
+  <si>
+    <t>01-Oct-2018</t>
+  </si>
+  <si>
+    <t>01-Jan-2019</t>
+  </si>
+  <si>
+    <t>01-Apr-2019</t>
+  </si>
+  <si>
+    <t>01-Jul-2019</t>
+  </si>
+  <si>
+    <t>01-Oct-2019</t>
+  </si>
+  <si>
+    <t>01-Jan-2020</t>
+  </si>
+  <si>
+    <t>01-Apr-2020</t>
+  </si>
+  <si>
+    <t>01-Jul-2020</t>
+  </si>
+  <si>
+    <t>01-Oct-2020</t>
+  </si>
+  <si>
+    <t>01-Jan-2021</t>
+  </si>
+  <si>
+    <t>01-Apr-2021</t>
+  </si>
+  <si>
+    <t>01-Jul-2021</t>
+  </si>
+  <si>
+    <t>01-Oct-2021</t>
   </si>
 </sst>
 </file>
@@ -1292,9 +1292,9 @@
       <selection activeCell="B2" sqref="B2:C301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>280</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>282</v>
       </c>
@@ -4385,221 +4385,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B282">
-        <v>17896.623</v>
+        <v>17889.094000000001</v>
       </c>
       <c r="C282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B283">
-        <v>17996.802</v>
+        <v>17979.218000000001</v>
       </c>
       <c r="C283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B284">
-        <v>18126.225999999999</v>
+        <v>18127.993999999999</v>
       </c>
       <c r="C284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B285">
-        <v>18296.685000000001</v>
+        <v>18310.3</v>
       </c>
       <c r="C285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B286">
-        <v>18436.261999999999</v>
+        <v>18437.127</v>
       </c>
       <c r="C286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B287">
-        <v>18590.004000000001</v>
+        <v>18565.697</v>
       </c>
       <c r="C287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B288">
-        <v>18679.598999999998</v>
+        <v>18699.748</v>
       </c>
       <c r="C288">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B289">
-        <v>18721.280999999999</v>
+        <v>18733.741000000002</v>
       </c>
       <c r="C289">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B290">
-        <v>18833.195</v>
+        <v>18835.411</v>
       </c>
       <c r="C290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B291">
-        <v>18982.527999999998</v>
+        <v>18962.174999999999</v>
       </c>
       <c r="C291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B292">
-        <v>19112.652999999998</v>
+        <v>19130.932000000001</v>
       </c>
       <c r="C292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B293">
-        <v>19202.310000000001</v>
+        <v>19215.690999999999</v>
       </c>
       <c r="C293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B294">
-        <v>18951.991999999998</v>
+        <v>18989.877</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B295">
-        <v>17258.205000000002</v>
+        <v>17378.712</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B296">
-        <v>18560.774000000001</v>
+        <v>18743.72</v>
       </c>
       <c r="C296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B297">
-        <v>18767.777999999998</v>
+        <v>18924.261999999999</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B298">
-        <v>19055.654999999999</v>
+        <v>19216.223999999998</v>
       </c>
       <c r="C298">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B299">
-        <v>19368.310000000001</v>
+        <v>19544.248</v>
       </c>
       <c r="C299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B300">
-        <v>19478.893</v>
+        <v>19672.594000000001</v>
       </c>
       <c r="C300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B301">
-        <v>19806.29</v>
+        <v>20006.181</v>
       </c>
       <c r="C301">
         <v>0</v>
